--- a/Excel_Test_Data/Inventory_Test_Data.xlsx
+++ b/Excel_Test_Data/Inventory_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>FieldName</t>
   </si>
@@ -88,39 +88,18 @@
     <t>Tabs</t>
   </si>
   <si>
-    <t>INJE1114</t>
-  </si>
-  <si>
     <t>http://his-ope.aigh.com/Histree/Login/Login</t>
   </si>
   <si>
     <t>MyHis@552350</t>
   </si>
   <si>
-    <t>V628032</t>
-  </si>
-  <si>
-    <t>INJE1604</t>
-  </si>
-  <si>
     <t>Facility</t>
   </si>
   <si>
     <t>AIG Hospitals, Gachibowli</t>
   </si>
   <si>
-    <t>ACNEMOIST CREAM 60GM</t>
-  </si>
-  <si>
-    <t>ALDRY LOTION 150GM</t>
-  </si>
-  <si>
-    <t>NC EUPHORA BALLOON 3.0X27MM-NCEUP3027X</t>
-  </si>
-  <si>
-    <t>BONE FILLER DEVICE F25R 3 VALUE BFD-F25R</t>
-  </si>
-  <si>
     <t>Adjustment Issue</t>
   </si>
   <si>
@@ -139,9 +118,6 @@
     <t>115.11-SHORT LEADERCATH 18G-10CM</t>
   </si>
   <si>
-    <t>Emr@12345</t>
-  </si>
-  <si>
     <t>Batch</t>
   </si>
   <si>
@@ -151,16 +127,55 @@
     <t>G230210989</t>
   </si>
   <si>
-    <t>Item Store Mapping</t>
-  </si>
-  <si>
     <t>Item_Code</t>
   </si>
   <si>
     <t>CAPS</t>
   </si>
   <si>
-    <t>A-3-HK</t>
+    <t>HisPassword@1234</t>
+  </si>
+  <si>
+    <t>Direct Receipt</t>
+  </si>
+  <si>
+    <t>A-3- OT Pharmacy 3F</t>
+  </si>
+  <si>
+    <t>SURG2940</t>
+  </si>
+  <si>
+    <t>SURG2946</t>
+  </si>
+  <si>
+    <t>SURG2942</t>
+  </si>
+  <si>
+    <t>SURG2951</t>
+  </si>
+  <si>
+    <t>SURG2948</t>
+  </si>
+  <si>
+    <t>SURG2943</t>
+  </si>
+  <si>
+    <t>1/4 X 1/4 STRAIGHT CONNECTOR</t>
+  </si>
+  <si>
+    <t>1/4 X 1/4 X 1/4 LUER LOCK CONNECTOR</t>
+  </si>
+  <si>
+    <t>1/4 X 1/4 X 1/4 Y CONNECTOR</t>
+  </si>
+  <si>
+    <t>1/4 X 3/16 STRAIGHT CONNECTOR</t>
+  </si>
+  <si>
+    <t>ZYNESP 40MCG INJ</t>
+  </si>
+  <si>
+    <t>ZYROP 5000 IU INJ</t>
   </si>
 </sst>
 </file>
@@ -170,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mmm\/yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,13 +324,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -678,7 +686,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -710,9 +718,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1041,7 +1046,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1085,10 +1090,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1107,13 +1112,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1130,10 +1135,10 @@
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1148,8 +1153,8 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>44</v>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1165,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1176,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,10 +1194,9 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1208,147 +1212,176 @@
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="13">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>19103279</v>
+      </c>
+      <c r="E2" s="11">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>23061509</v>
+      </c>
+      <c r="E3" s="11">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>18040272</v>
+      </c>
+      <c r="E4" s="11">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="11">
-        <v>46081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="D5" s="4">
+        <v>17071762</v>
+      </c>
+      <c r="E5" s="11">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="14">
-        <v>1332072</v>
-      </c>
-      <c r="E3" s="11">
-        <v>46234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="13">
-        <v>2</v>
-      </c>
-      <c r="D4" s="14">
-        <v>87815</v>
-      </c>
-      <c r="E4" s="11">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="D6" s="4">
+        <v>22103694</v>
+      </c>
+      <c r="E6" s="11">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
-        <v>21121</v>
-      </c>
-      <c r="E5" s="11">
-        <v>46142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="4">
+        <v>24040245</v>
+      </c>
+      <c r="E7" s="11">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20112604</v>
+      </c>
+      <c r="E8" s="11">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
@@ -1356,8 +1389,8 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="11"/>
@@ -1419,8 +1452,8 @@
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="11"/>
@@ -1447,8 +1480,8 @@
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="11"/>
@@ -1531,70 +1564,68 @@
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="C45" s="9"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
-      <c r="C46" s="9"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="8"/>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="10"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8"/>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="11"/>
     </row>
@@ -1605,20 +1636,20 @@
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="5"/>
-      <c r="C54" s="8"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="8"/>
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="11"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="9"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="11"/>
     </row>
@@ -1635,13 +1666,13 @@
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="11"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="11"/>
@@ -1673,23 +1704,23 @@
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="11"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="11"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="5"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="8"/>
       <c r="D67" s="10"/>
       <c r="E67" s="11"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="5"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="8"/>
       <c r="D68" s="10"/>
       <c r="E68" s="11"/>
@@ -1702,25 +1733,25 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="10"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="11"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="10"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="11"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="7"/>
-      <c r="C72" s="9"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="11"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="8"/>
       <c r="E73" s="11"/>
     </row>
@@ -1733,55 +1764,55 @@
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="11"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
-      <c r="C76" s="8"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="8"/>
       <c r="E76" s="11"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="5"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="11"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
-      <c r="C78" s="9"/>
+      <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="11"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="10"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="11"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
-      <c r="C80" s="8"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="8"/>
       <c r="E80" s="11"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="5"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="10"/>
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
-      <c r="C82" s="9"/>
+      <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="11"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="10"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="11"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
@@ -1792,7 +1823,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
-      <c r="C85" s="9"/>
+      <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="11"/>
     </row>
@@ -1811,13 +1842,13 @@
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+      <c r="D88" s="10"/>
       <c r="E88" s="11"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+      <c r="D89" s="10"/>
       <c r="E89" s="11"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
@@ -1847,13 +1878,13 @@
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="10"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="11"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="10"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="11"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
@@ -1864,7 +1895,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
-      <c r="C97" s="9"/>
+      <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="11"/>
     </row>
@@ -1900,13 +1931,13 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
-      <c r="C103" s="8"/>
+      <c r="C103" s="9"/>
       <c r="D103" s="8"/>
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
-      <c r="C104" s="8"/>
+      <c r="C104" s="9"/>
       <c r="D104" s="8"/>
       <c r="E104" s="11"/>
     </row>
@@ -1924,13 +1955,13 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
-      <c r="C107" s="9"/>
+      <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
-      <c r="C108" s="9"/>
+      <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="11"/>
     </row>
@@ -1984,13 +2015,13 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
-      <c r="C117" s="8"/>
+      <c r="C117" s="9"/>
       <c r="D117" s="8"/>
       <c r="E117" s="11"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
-      <c r="C118" s="8"/>
+      <c r="C118" s="9"/>
       <c r="D118" s="8"/>
       <c r="E118" s="11"/>
     </row>
@@ -2002,13 +2033,13 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="5"/>
-      <c r="C120" s="9"/>
+      <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="11"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
-      <c r="C121" s="9"/>
+      <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="11"/>
     </row>
@@ -2019,25 +2050,25 @@
       <c r="E122" s="11"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="5"/>
+      <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="11"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="5"/>
+      <c r="B124" s="7"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="11"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="7"/>
+      <c r="B125" s="5"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="11"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="7"/>
+      <c r="B126" s="5"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="11"/>
@@ -2091,13 +2122,13 @@
       <c r="E134" s="11"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="5"/>
+      <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="11"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="5"/>
+      <c r="B136" s="7"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="11"/>
@@ -2110,37 +2141,37 @@
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
       <c r="E138" s="11"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="7"/>
+      <c r="B139" s="5"/>
       <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+      <c r="D139" s="10"/>
       <c r="E139" s="11"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="7"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="10"/>
       <c r="E140" s="11"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="5"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="10"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="8"/>
       <c r="E141" s="11"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="5"/>
       <c r="C142" s="8"/>
-      <c r="D142" s="10"/>
+      <c r="D142" s="8"/>
       <c r="E142" s="11"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
-      <c r="C143" s="9"/>
+      <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="11"/>
     </row>
@@ -2169,7 +2200,7 @@
       <c r="E147" s="11"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="5"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="11"/>
@@ -2181,7 +2212,7 @@
       <c r="E149" s="11"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="7"/>
+      <c r="B150" s="5"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="11"/>
@@ -2200,7 +2231,7 @@
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
-      <c r="C153" s="8"/>
+      <c r="C153" s="9"/>
       <c r="D153" s="8"/>
       <c r="E153" s="11"/>
     </row>
@@ -2212,43 +2243,43 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="5"/>
-      <c r="C155" s="9"/>
+      <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="11"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
-      <c r="C156" s="8"/>
+      <c r="C156" s="9"/>
       <c r="D156" s="8"/>
       <c r="E156" s="11"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
-      <c r="C157" s="8"/>
+      <c r="C157" s="9"/>
       <c r="D157" s="8"/>
       <c r="E157" s="11"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="5"/>
-      <c r="C158" s="9"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="11"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="5"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="9"/>
       <c r="D159" s="8"/>
       <c r="E159" s="11"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
-      <c r="C160" s="8"/>
+      <c r="C160" s="9"/>
       <c r="D160" s="8"/>
       <c r="E160" s="11"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="7"/>
-      <c r="C161" s="9"/>
+      <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="11"/>
     </row>
@@ -2266,7 +2297,7 @@
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
-      <c r="C164" s="9"/>
+      <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="11"/>
     </row>
@@ -2289,13 +2320,13 @@
       <c r="E167" s="11"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="7"/>
+      <c r="B168" s="5"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="11"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="7"/>
+      <c r="B169" s="5"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="11"/>
@@ -2314,14 +2345,14 @@
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
-      <c r="C172" s="8"/>
+      <c r="C172" s="9"/>
       <c r="D172" s="8"/>
       <c r="E172" s="11"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="5"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
       <c r="E173" s="11"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
@@ -2332,13 +2363,13 @@
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
       <c r="E175" s="11"/>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
-      <c r="C176" s="9"/>
+      <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="11"/>
     </row>
@@ -2356,7 +2387,7 @@
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
-      <c r="C179" s="8"/>
+      <c r="C179" s="9"/>
       <c r="D179" s="8"/>
       <c r="E179" s="11"/>
     </row>
@@ -2368,13 +2399,13 @@
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
-      <c r="C181" s="9"/>
+      <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="11"/>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="5"/>
-      <c r="C182" s="8"/>
+      <c r="C182" s="9"/>
       <c r="D182" s="8"/>
       <c r="E182" s="11"/>
     </row>
@@ -2386,7 +2417,7 @@
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="5"/>
-      <c r="C184" s="9"/>
+      <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="11"/>
     </row>
@@ -2404,7 +2435,7 @@
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="5"/>
-      <c r="C187" s="8"/>
+      <c r="C187" s="9"/>
       <c r="D187" s="8"/>
       <c r="E187" s="11"/>
     </row>
@@ -2416,7 +2447,7 @@
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
-      <c r="C189" s="9"/>
+      <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="11"/>
     </row>
@@ -2428,7 +2459,7 @@
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="5"/>
-      <c r="C191" s="8"/>
+      <c r="C191" s="9"/>
       <c r="D191" s="8"/>
       <c r="E191" s="11"/>
     </row>
@@ -2437,18 +2468,6 @@
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="11"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="5"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="11"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="5"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2474,41 +2493,41 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2530,13 +2549,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>42</v>
+      <c r="A1" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Test_Data/Inventory_Test_Data.xlsx
+++ b/Excel_Test_Data/Inventory_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Direct_Receipt_Medicines" sheetId="3" r:id="rId3"/>
     <sheet name="Adjustments" sheetId="5" r:id="rId4"/>
     <sheet name="Item_Mapping" sheetId="6" r:id="rId5"/>
+    <sheet name="Indent_Items" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Item_Mapping!$A$1:$A$2</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>FieldName</t>
   </si>
@@ -176,6 +177,12 @@
   </si>
   <si>
     <t>ZYROP 5000 IU INJ</t>
+  </si>
+  <si>
+    <t>Indent Items</t>
+  </si>
+  <si>
+    <t>Search_Option</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2562,4 +2569,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>